--- a/release/figures/SBharadwaj_20240318_Sample_3_6_07_output_v0.1.1_seurat_clusters_speed_coherence.xlsx
+++ b/release/figures/SBharadwaj_20240318_Sample_3_6_07_output_v0.1.1_seurat_clusters_speed_coherence.xlsx
@@ -484,16 +484,16 @@
         <v>0.5089567899703979</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4676248133182526</v>
+        <v>0.467632383108139</v>
       </c>
       <c r="D2" t="n">
         <v>0.5410929918289185</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9559066295623779</v>
+        <v>0.9560369253158569</v>
       </c>
       <c r="F2" t="n">
-        <v>0.4882438182830811</v>
+        <v>0.4882873594760895</v>
       </c>
       <c r="G2" t="n">
         <v>0.5111274123191833</v>
@@ -527,43 +527,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.6773921224856319</v>
+        <v>0.677417111546967</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8081533394460869</v>
+        <v>0.8081616676368845</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6702561240164654</v>
+        <v>0.6702565905992531</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9305310586505812</v>
+        <v>0.9303593615112457</v>
       </c>
       <c r="F3" t="n">
-        <v>0.6337685566773047</v>
+        <v>0.6338010304124323</v>
       </c>
       <c r="G3" t="n">
-        <v>0.834073244867956</v>
+        <v>0.8340881993519325</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6505829833873312</v>
+        <v>0.6507577629933926</v>
       </c>
       <c r="I3" t="n">
-        <v>0.9408424614698856</v>
+        <v>0.9408436678833776</v>
       </c>
       <c r="J3" t="n">
-        <v>0.6850224488834832</v>
+        <v>0.6850402419290998</v>
       </c>
       <c r="K3" t="n">
-        <v>0.7878662690739421</v>
+        <v>0.7878701051368433</v>
       </c>
       <c r="L3" t="n">
-        <v>0.8818202990375154</v>
+        <v>0.8818163994240434</v>
       </c>
       <c r="M3" t="n">
-        <v>0.8298475565388799</v>
+        <v>0.829847163753584</v>
       </c>
       <c r="N3" t="n">
-        <v>0.800792782144113</v>
+        <v>0.8007933727719567</v>
       </c>
     </row>
   </sheetData>

--- a/release/figures/SBharadwaj_20240318_Sample_3_6_07_output_v0.1.1_seurat_clusters_speed_coherence.xlsx
+++ b/release/figures/SBharadwaj_20240318_Sample_3_6_07_output_v0.1.1_seurat_clusters_speed_coherence.xlsx
@@ -434,44 +434,70 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="n">
-        <v>12</v>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
       </c>
     </row>
     <row r="2">
@@ -481,22 +507,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5089567899703979</v>
+        <v>0.5089418888092041</v>
       </c>
       <c r="C2" t="n">
         <v>0.467632383108139</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5410929918289185</v>
+        <v>0.5410738587379456</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9560369253158569</v>
+        <v>0.9559283256530762</v>
       </c>
       <c r="F2" t="n">
-        <v>0.4882873594760895</v>
+        <v>0.4884034991264343</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5111274123191833</v>
+        <v>0.5110294222831726</v>
       </c>
       <c r="H2" t="n">
         <v>0.4259515404701233</v>
@@ -527,43 +553,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.677417111546967</v>
+        <v>0.6774224749795438</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8081616676368845</v>
+        <v>0.8081661402550773</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6702565905992531</v>
+        <v>0.6702690571439404</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9303593615112457</v>
+        <v>0.9305330109211184</v>
       </c>
       <c r="F3" t="n">
-        <v>0.6338010304124323</v>
+        <v>0.633899910280297</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8340881993519325</v>
+        <v>0.8340557077351738</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6507577629933926</v>
+        <v>0.650839012032407</v>
       </c>
       <c r="I3" t="n">
-        <v>0.9408436678833776</v>
+        <v>0.9408433181898934</v>
       </c>
       <c r="J3" t="n">
-        <v>0.6850402419290998</v>
+        <v>0.6850470708549218</v>
       </c>
       <c r="K3" t="n">
-        <v>0.7878701051368433</v>
+        <v>0.7878464319031028</v>
       </c>
       <c r="L3" t="n">
-        <v>0.8818163994240434</v>
+        <v>0.8817786117122598</v>
       </c>
       <c r="M3" t="n">
-        <v>0.829847163753584</v>
+        <v>0.8298488256987184</v>
       </c>
       <c r="N3" t="n">
-        <v>0.8007933727719567</v>
+        <v>0.8007931004871022</v>
       </c>
     </row>
   </sheetData>
